--- a/data/trans_orig/P34B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A41F0FAD-0AE5-4682-88FF-165B11EDE7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13D1215D-954C-4418-AB6C-38AEB8694609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{46B1F447-DD93-4D57-A254-C8CD79EC5D7A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{978C1D5C-8B76-414F-B743-F9C80879A567}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="503">
   <si>
     <t>Población según el número de días a la semana que realiza gimnasia suave juegos que requieren poco esfuerzo y similares en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -76,1447 +76,1477 @@
     <t>1,67%</t>
   </si>
   <si>
-    <t>0,98%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>Ningun dia/semana</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza gimnasia suave juegos que requieren poco esfuerzo y similares en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza gimnasia suave juegos que requieren poco esfuerzo y similares en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>Ningun dia/semana</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>1,1%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza gimnasia suave juegos que requieren poco esfuerzo y similares en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza gimnasia suave juegos que requieren poco esfuerzo y similares en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
   </si>
   <si>
     <t>78,86%</t>
   </si>
   <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
   </si>
 </sst>
 </file>
@@ -1928,7 +1958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D3986-2A89-4831-B249-BD3CAF23D970}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE160DD-CD45-45CA-9883-3DDE6B0B541C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2226,7 +2256,7 @@
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2235,19 +2265,19 @@
         <v>4233</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>11</v>
@@ -2256,13 +2286,13 @@
         <v>12270</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -2271,13 +2301,13 @@
         <v>16636</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -2286,19 +2316,19 @@
         <v>28906</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7">
         <v>9</v>
@@ -2307,13 +2337,13 @@
         <v>10252</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -2322,13 +2352,13 @@
         <v>16926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M9" s="7">
         <v>25</v>
@@ -2337,19 +2367,19 @@
         <v>27178</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="7">
         <v>2</v>
@@ -2358,13 +2388,13 @@
         <v>1981</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2373,13 +2403,13 @@
         <v>4158</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2388,19 +2418,19 @@
         <v>6139</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="7">
         <v>862</v>
@@ -2409,13 +2439,13 @@
         <v>923452</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" s="7">
         <v>1200</v>
@@ -2424,13 +2454,13 @@
         <v>1288759</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M11" s="7">
         <v>2062</v>
@@ -2439,13 +2469,13 @@
         <v>2212213</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,13 +2490,13 @@
         <v>972575</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>1247</v>
@@ -2475,13 +2505,13 @@
         <v>1337796</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>2153</v>
@@ -2490,18 +2520,18 @@
         <v>2310372</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2513,13 +2543,13 @@
         <v>22748</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -2528,13 +2558,13 @@
         <v>12362</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -2543,10 +2573,10 @@
         <v>35111</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>90</v>
@@ -2564,13 +2594,13 @@
         <v>7071</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -2579,13 +2609,13 @@
         <v>4923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -2594,13 +2624,13 @@
         <v>11994</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,13 +2645,13 @@
         <v>30404</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -2630,13 +2660,13 @@
         <v>27566</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>56</v>
@@ -2645,13 +2675,13 @@
         <v>57969</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,7 +2702,7 @@
         <v>33</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -2681,13 +2711,13 @@
         <v>4243</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2696,19 +2726,19 @@
         <v>11048</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" s="7">
         <v>43</v>
@@ -2717,13 +2747,13 @@
         <v>43746</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -2732,13 +2762,13 @@
         <v>28552</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -2747,19 +2777,19 @@
         <v>72299</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C18" s="7">
         <v>62</v>
@@ -2768,13 +2798,13 @@
         <v>67460</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -2783,13 +2813,13 @@
         <v>39942</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>101</v>
@@ -2798,19 +2828,19 @@
         <v>107402</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="7">
         <v>23</v>
@@ -2819,13 +2849,13 @@
         <v>24669</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -2834,13 +2864,13 @@
         <v>18756</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -2849,19 +2879,19 @@
         <v>43425</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="7">
         <v>1661</v>
@@ -2870,13 +2900,13 @@
         <v>1761053</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>1505</v>
@@ -2885,13 +2915,13 @@
         <v>1619565</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>3166</v>
@@ -2900,13 +2930,13 @@
         <v>3380618</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2951,13 @@
         <v>1963957</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" s="7">
         <v>1634</v>
@@ -2936,13 +2966,13 @@
         <v>1755909</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M21" s="7">
         <v>3490</v>
@@ -2951,18 +2981,18 @@
         <v>3719866</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2974,13 +3004,13 @@
         <v>8131</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -2989,13 +3019,13 @@
         <v>6711</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -3004,13 +3034,13 @@
         <v>14842</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3055,13 @@
         <v>1012</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3043,10 +3073,10 @@
         <v>22</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3061,7 +3091,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,13 +3106,13 @@
         <v>8947</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -3091,13 +3121,13 @@
         <v>8641</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -3106,13 +3136,13 @@
         <v>17588</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,13 +3157,13 @@
         <v>3950</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -3142,13 +3172,13 @@
         <v>5418</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -3157,19 +3187,19 @@
         <v>9368</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>14</v>
@@ -3178,13 +3208,13 @@
         <v>14010</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -3193,13 +3223,13 @@
         <v>9191</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -3208,19 +3238,19 @@
         <v>23200</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C27" s="7">
         <v>19</v>
@@ -3229,13 +3259,13 @@
         <v>19629</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -3244,13 +3274,13 @@
         <v>10109</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="M27" s="7">
         <v>29</v>
@@ -3259,19 +3289,19 @@
         <v>29738</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="7">
         <v>3</v>
@@ -3280,13 +3310,13 @@
         <v>2959</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -3295,13 +3325,13 @@
         <v>7349</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -3310,19 +3340,19 @@
         <v>10308</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="7">
         <v>382</v>
@@ -3331,13 +3361,13 @@
         <v>422543</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>372</v>
@@ -3346,13 +3376,13 @@
         <v>411212</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>754</v>
@@ -3361,13 +3391,13 @@
         <v>833756</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3412,13 @@
         <v>481181</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30" s="7">
         <v>412</v>
@@ -3397,13 +3427,13 @@
         <v>458631</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M30" s="7">
         <v>850</v>
@@ -3412,13 +3442,13 @@
         <v>939812</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,13 +3465,13 @@
         <v>47123</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="H31" s="7">
         <v>20</v>
@@ -3450,13 +3480,13 @@
         <v>22209</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="M31" s="7">
         <v>64</v>
@@ -3465,13 +3495,13 @@
         <v>69332</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>191</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,13 +3516,13 @@
         <v>9124</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -3501,7 +3531,7 @@
         <v>6844</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>42</v>
@@ -3519,10 +3549,10 @@
         <v>14</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3567,13 @@
         <v>43497</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="H33" s="7">
         <v>36</v>
@@ -3552,13 +3582,13 @@
         <v>41422</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="M33" s="7">
         <v>78</v>
@@ -3567,13 +3597,13 @@
         <v>84919</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,10 +3621,10 @@
         <v>35</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -3603,10 +3633,10 @@
         <v>10705</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>23</v>
@@ -3621,16 +3651,16 @@
         <v>28</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C35" s="7">
         <v>68</v>
@@ -3639,13 +3669,13 @@
         <v>70025</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H35" s="7">
         <v>50</v>
@@ -3654,13 +3684,13 @@
         <v>54379</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="M35" s="7">
         <v>118</v>
@@ -3669,19 +3699,19 @@
         <v>124405</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7">
         <v>90</v>
@@ -3690,13 +3720,13 @@
         <v>97341</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H36" s="7">
         <v>65</v>
@@ -3705,13 +3735,13 @@
         <v>66977</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="M36" s="7">
         <v>155</v>
@@ -3720,19 +3750,19 @@
         <v>164318</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C37" s="7">
         <v>28</v>
@@ -3741,13 +3771,13 @@
         <v>29609</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H37" s="7">
         <v>28</v>
@@ -3756,13 +3786,13 @@
         <v>30263</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M37" s="7">
         <v>56</v>
@@ -3771,19 +3801,19 @@
         <v>59872</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" s="7">
         <v>2905</v>
@@ -3792,13 +3822,13 @@
         <v>3107049</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H38" s="7">
         <v>3077</v>
@@ -3807,13 +3837,13 @@
         <v>3319537</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M38" s="7">
         <v>5982</v>
@@ -3822,13 +3852,13 @@
         <v>6426586</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3873,13 @@
         <v>3417714</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" s="7">
         <v>3293</v>
@@ -3858,13 +3888,13 @@
         <v>3552336</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M39" s="7">
         <v>6493</v>
@@ -3873,18 +3903,18 @@
         <v>6970050</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3903,7 +3933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29AD63A-5F72-41AE-BDCC-881D06D762CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F5893C-14CC-4DE5-87FE-576B9D676ECD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3920,7 +3950,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4027,13 +4057,13 @@
         <v>9729</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4042,13 +4072,13 @@
         <v>10367</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>51</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4057,13 +4087,13 @@
         <v>20095</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4108,13 @@
         <v>3563</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4096,10 +4126,10 @@
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4108,13 +4138,13 @@
         <v>3563</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4159,13 @@
         <v>8716</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4144,13 +4174,13 @@
         <v>6350</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>234</v>
+        <v>48</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4159,13 +4189,13 @@
         <v>15066</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4210,13 @@
         <v>2042</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4195,13 +4225,13 @@
         <v>4783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4213,16 +4243,16 @@
         <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>17</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -4231,13 +4261,13 @@
         <v>3622</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -4246,13 +4276,13 @@
         <v>12818</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>244</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -4261,19 +4291,19 @@
         <v>16440</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7">
         <v>6</v>
@@ -4282,13 +4312,13 @@
         <v>6154</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -4297,13 +4327,13 @@
         <v>14422</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>240</v>
+        <v>117</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -4312,19 +4342,19 @@
         <v>20576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>149</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="7">
         <v>6</v>
@@ -4333,13 +4363,13 @@
         <v>5897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4351,10 +4381,10 @@
         <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -4363,19 +4393,19 @@
         <v>9783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>96</v>
+        <v>250</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>92</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="7">
         <v>723</v>
@@ -4384,13 +4414,13 @@
         <v>714626</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="H11" s="7">
         <v>846</v>
@@ -4399,13 +4429,13 @@
         <v>942034</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M11" s="7">
         <v>1569</v>
@@ -4414,13 +4444,13 @@
         <v>1656659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4465,13 @@
         <v>754347</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>892</v>
@@ -4450,13 +4480,13 @@
         <v>994660</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>1654</v>
@@ -4465,18 +4495,18 @@
         <v>1749007</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4488,13 +4518,13 @@
         <v>30601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4503,13 +4533,13 @@
         <v>15261</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -4518,13 +4548,13 @@
         <v>45862</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>154</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4569,13 @@
         <v>4024</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -4554,13 +4584,13 @@
         <v>10576</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>25</v>
+        <v>264</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -4569,13 +4599,13 @@
         <v>14600</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4620,13 @@
         <v>45697</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -4605,13 +4635,13 @@
         <v>26283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>114</v>
+        <v>266</v>
       </c>
       <c r="M15" s="7">
         <v>70</v>
@@ -4620,13 +4650,13 @@
         <v>71980</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4671,13 @@
         <v>20709</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4656,13 +4686,13 @@
         <v>11403</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>261</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>39</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -4671,19 +4701,19 @@
         <v>32111</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" s="7">
         <v>59</v>
@@ -4692,13 +4722,13 @@
         <v>61677</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4707,13 +4737,13 @@
         <v>47072</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -4722,19 +4752,19 @@
         <v>108750</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C18" s="7">
         <v>57</v>
@@ -4743,13 +4773,13 @@
         <v>61254</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>50</v>
@@ -4758,13 +4788,13 @@
         <v>51837</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>60</v>
+        <v>266</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="M18" s="7">
         <v>107</v>
@@ -4773,19 +4803,19 @@
         <v>113091</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>279</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>140</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="7">
         <v>35</v>
@@ -4794,13 +4824,13 @@
         <v>37455</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -4809,13 +4839,13 @@
         <v>34495</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -4824,19 +4854,19 @@
         <v>71951</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="7">
         <v>1705</v>
@@ -4845,13 +4875,13 @@
         <v>1814967</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="H20" s="7">
         <v>1718</v>
@@ -4860,13 +4890,13 @@
         <v>1791374</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="M20" s="7">
         <v>3423</v>
@@ -4875,13 +4905,13 @@
         <v>3606341</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,13 +4926,13 @@
         <v>2076385</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" s="7">
         <v>1908</v>
@@ -4911,13 +4941,13 @@
         <v>1988300</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M21" s="7">
         <v>3860</v>
@@ -4926,18 +4956,18 @@
         <v>4064685</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4949,13 +4979,13 @@
         <v>17464</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>295</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -4964,13 +4994,13 @@
         <v>6609</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -4979,13 +5009,13 @@
         <v>24073</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5030,13 @@
         <v>3165</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>286</v>
+        <v>53</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5018,10 +5048,10 @@
         <v>22</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -5030,13 +5060,13 @@
         <v>3165</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>255</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5081,13 @@
         <v>16891</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>302</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -5066,13 +5096,13 @@
         <v>8041</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>13</v>
+        <v>303</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -5081,13 +5111,13 @@
         <v>24933</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>288</v>
+        <v>104</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5132,13 @@
         <v>7575</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5117,13 +5147,13 @@
         <v>5072</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>290</v>
+        <v>28</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -5132,19 +5162,19 @@
         <v>12647</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>16</v>
@@ -5153,13 +5183,13 @@
         <v>19092</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>142</v>
+        <v>307</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>104</v>
+        <v>308</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -5168,13 +5198,13 @@
         <v>22167</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -5183,19 +5213,19 @@
         <v>41259</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C27" s="7">
         <v>18</v>
@@ -5204,13 +5234,13 @@
         <v>18656</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>299</v>
+        <v>145</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>104</v>
+        <v>260</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="H27" s="7">
         <v>24</v>
@@ -5219,13 +5249,13 @@
         <v>25170</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="M27" s="7">
         <v>42</v>
@@ -5234,19 +5264,19 @@
         <v>43826</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="7">
         <v>14</v>
@@ -5255,13 +5285,13 @@
         <v>16325</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>308</v>
+        <v>168</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -5270,13 +5300,13 @@
         <v>16308</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -5285,19 +5315,19 @@
         <v>32633</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>311</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="7">
         <v>413</v>
@@ -5306,13 +5336,13 @@
         <v>447718</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="H29" s="7">
         <v>445</v>
@@ -5321,13 +5351,13 @@
         <v>465773</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="M29" s="7">
         <v>858</v>
@@ -5336,13 +5366,13 @@
         <v>913491</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5387,13 @@
         <v>546886</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30" s="7">
         <v>526</v>
@@ -5372,13 +5402,13 @@
         <v>549140</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M30" s="7">
         <v>1027</v>
@@ -5387,13 +5417,13 @@
         <v>1096026</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,13 +5440,13 @@
         <v>57794</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>98</v>
+        <v>336</v>
       </c>
       <c r="H31" s="7">
         <v>30</v>
@@ -5425,13 +5455,13 @@
         <v>32236</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>93</v>
+        <v>337</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="M31" s="7">
         <v>84</v>
@@ -5440,13 +5470,13 @@
         <v>90030</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>272</v>
+        <v>338</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>55</v>
+        <v>197</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,13 +5491,13 @@
         <v>10752</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -5476,13 +5506,13 @@
         <v>10576</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -5491,13 +5521,13 @@
         <v>21328</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,13 +5542,13 @@
         <v>71304</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="H33" s="7">
         <v>40</v>
@@ -5527,13 +5557,13 @@
         <v>40674</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="M33" s="7">
         <v>108</v>
@@ -5542,13 +5572,13 @@
         <v>111978</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>127</v>
+        <v>341</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>256</v>
+        <v>338</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5593,13 @@
         <v>30326</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>93</v>
+        <v>343</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>235</v>
+        <v>338</v>
       </c>
       <c r="H34" s="7">
         <v>20</v>
@@ -5578,13 +5608,13 @@
         <v>21258</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>174</v>
+        <v>337</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M34" s="7">
         <v>48</v>
@@ -5593,19 +5623,19 @@
         <v>51584</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C35" s="7">
         <v>78</v>
@@ -5614,13 +5644,13 @@
         <v>84391</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="H35" s="7">
         <v>77</v>
@@ -5629,13 +5659,13 @@
         <v>82058</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>122</v>
+        <v>346</v>
       </c>
       <c r="M35" s="7">
         <v>155</v>
@@ -5644,19 +5674,19 @@
         <v>166449</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>211</v>
+        <v>348</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>13</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7">
         <v>81</v>
@@ -5665,13 +5695,13 @@
         <v>86064</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="H36" s="7">
         <v>86</v>
@@ -5680,13 +5710,13 @@
         <v>91429</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>351</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="M36" s="7">
         <v>167</v>
@@ -5695,19 +5725,19 @@
         <v>177492</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>332</v>
+        <v>173</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C37" s="7">
         <v>55</v>
@@ -5716,13 +5746,13 @@
         <v>59677</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>234</v>
+        <v>354</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="H37" s="7">
         <v>54</v>
@@ -5731,13 +5761,13 @@
         <v>54689</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>333</v>
+        <v>131</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>334</v>
+        <v>59</v>
       </c>
       <c r="M37" s="7">
         <v>109</v>
@@ -5746,19 +5776,19 @@
         <v>114366</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>336</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" s="7">
         <v>2841</v>
@@ -5767,13 +5797,13 @@
         <v>2977310</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>337</v>
+        <v>134</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="H38" s="7">
         <v>3009</v>
@@ -5782,13 +5812,13 @@
         <v>3199180</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="M38" s="7">
         <v>5850</v>
@@ -5797,13 +5827,13 @@
         <v>6176491</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5848,13 @@
         <v>3377618</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" s="7">
         <v>3326</v>
@@ -5833,13 +5863,13 @@
         <v>3532100</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M39" s="7">
         <v>6541</v>
@@ -5848,18 +5878,18 @@
         <v>6909718</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5878,7 +5908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441F96A8-7AED-48AA-BB9A-E923CC20B7C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A06ACC3-63CD-4FDE-A4F4-342E02CA2A62}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5895,7 +5925,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6002,13 +6032,13 @@
         <v>9590</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -6017,13 +6047,13 @@
         <v>5299</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -6032,13 +6062,13 @@
         <v>14888</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>112</v>
+        <v>365</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>348</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6083,13 @@
         <v>5501</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>349</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6068,13 +6098,13 @@
         <v>4298</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>262</v>
+        <v>185</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -6083,13 +6113,13 @@
         <v>9799</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>107</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6134,13 @@
         <v>14607</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -6119,13 +6149,13 @@
         <v>11208</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>353</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>354</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -6134,13 +6164,13 @@
         <v>25814</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6185,13 @@
         <v>7410</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>369</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>356</v>
+        <v>270</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -6170,13 +6200,13 @@
         <v>2330</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -6185,19 +6215,19 @@
         <v>9740</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>370</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -6206,13 +6236,13 @@
         <v>6552</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>88</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>97</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -6221,13 +6251,13 @@
         <v>18435</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>148</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -6236,19 +6266,19 @@
         <v>24987</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7">
         <v>5</v>
@@ -6257,13 +6287,13 @@
         <v>3762</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>362</v>
+        <v>144</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>205</v>
+        <v>341</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -6272,13 +6302,13 @@
         <v>15760</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>357</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -6287,19 +6317,19 @@
         <v>19523</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>365</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="7">
         <v>4</v>
@@ -6308,13 +6338,13 @@
         <v>2962</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -6323,13 +6353,13 @@
         <v>5863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>370</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -6338,19 +6368,19 @@
         <v>8825</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="7">
         <v>628</v>
@@ -6359,13 +6389,13 @@
         <v>491251</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>1314</v>
@@ -6374,13 +6404,13 @@
         <v>768813</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>139</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="M11" s="7">
         <v>1942</v>
@@ -6389,13 +6419,13 @@
         <v>1260064</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,13 +6440,13 @@
         <v>541634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>1424</v>
@@ -6425,13 +6455,13 @@
         <v>832006</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>2115</v>
@@ -6440,18 +6470,18 @@
         <v>1373640</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6463,13 +6493,13 @@
         <v>28619</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>384</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>104</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -6478,13 +6508,13 @@
         <v>34851</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>112</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -6493,13 +6523,13 @@
         <v>63470</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6514,13 +6544,13 @@
         <v>40136</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -6532,10 +6562,10 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -6544,13 +6574,13 @@
         <v>58996</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6565,13 +6595,13 @@
         <v>160507</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="H15" s="7">
         <v>120</v>
@@ -6580,13 +6610,13 @@
         <v>80374</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>380</v>
+        <v>169</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="M15" s="7">
         <v>267</v>
@@ -6595,13 +6625,13 @@
         <v>240880</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>159</v>
+        <v>323</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,13 +6646,13 @@
         <v>83367</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>321</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -6631,13 +6661,13 @@
         <v>46783</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>252</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>351</v>
+        <v>218</v>
       </c>
       <c r="M16" s="7">
         <v>130</v>
@@ -6646,19 +6676,19 @@
         <v>130150</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" s="7">
         <v>110</v>
@@ -6667,13 +6697,13 @@
         <v>140537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
@@ -6682,13 +6712,13 @@
         <v>123097</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>268</v>
@@ -6697,19 +6727,19 @@
         <v>263634</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C18" s="7">
         <v>68</v>
@@ -6718,13 +6748,13 @@
         <v>86584</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>396</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="H18" s="7">
         <v>144</v>
@@ -6733,13 +6763,13 @@
         <v>107526</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="M18" s="7">
         <v>212</v>
@@ -6748,19 +6778,19 @@
         <v>194110</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>401</v>
+        <v>171</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="7">
         <v>18</v>
@@ -6769,13 +6799,13 @@
         <v>23401</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>112</v>
+        <v>365</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -6784,13 +6814,13 @@
         <v>20166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>403</v>
+        <v>248</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -6799,19 +6829,19 @@
         <v>43568</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>144</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="7">
         <v>1528</v>
@@ -6820,13 +6850,13 @@
         <v>1594057</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="H20" s="7">
         <v>2334</v>
@@ -6835,13 +6865,13 @@
         <v>1816033</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="M20" s="7">
         <v>3862</v>
@@ -6850,13 +6880,13 @@
         <v>3410090</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,13 +6901,13 @@
         <v>2157207</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" s="7">
         <v>2917</v>
@@ -6886,13 +6916,13 @@
         <v>2247691</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M21" s="7">
         <v>4906</v>
@@ -6901,18 +6931,18 @@
         <v>4404898</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6924,13 +6954,13 @@
         <v>17103</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -6939,13 +6969,13 @@
         <v>16474</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -6954,13 +6984,13 @@
         <v>33577</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>414</v>
+        <v>282</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6975,13 +7005,13 @@
         <v>7346</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>217</v>
+        <v>428</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -6990,13 +7020,13 @@
         <v>8271</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -7005,13 +7035,13 @@
         <v>15617</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7026,13 +7056,13 @@
         <v>46536</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="H24" s="7">
         <v>38</v>
@@ -7041,13 +7071,13 @@
         <v>25748</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>418</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>419</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="M24" s="7">
         <v>79</v>
@@ -7056,13 +7086,13 @@
         <v>72285</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>421</v>
+        <v>302</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,13 +7107,13 @@
         <v>19059</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>425</v>
+        <v>335</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>426</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -7092,13 +7122,13 @@
         <v>26083</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>428</v>
+        <v>285</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -7107,19 +7137,19 @@
         <v>45141</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>359</v>
+        <v>437</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>328</v>
+        <v>117</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>47</v>
@@ -7128,13 +7158,13 @@
         <v>54433</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="H26" s="7">
         <v>97</v>
@@ -7143,13 +7173,13 @@
         <v>73278</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="M26" s="7">
         <v>144</v>
@@ -7158,19 +7188,19 @@
         <v>127711</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C27" s="7">
         <v>23</v>
@@ -7179,13 +7209,13 @@
         <v>23461</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>142</v>
+        <v>307</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>291</v>
+        <v>112</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="H27" s="7">
         <v>88</v>
@@ -7194,13 +7224,13 @@
         <v>62716</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="M27" s="7">
         <v>111</v>
@@ -7209,19 +7239,19 @@
         <v>86177</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="7">
         <v>10</v>
@@ -7230,13 +7260,13 @@
         <v>11856</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>425</v>
+        <v>64</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>34</v>
+        <v>455</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -7245,13 +7275,13 @@
         <v>14014</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>447</v>
+        <v>145</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -7260,19 +7290,19 @@
         <v>25870</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>61</v>
+        <v>297</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>207</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="7">
         <v>517</v>
@@ -7281,13 +7311,13 @@
         <v>493246</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H29" s="7">
         <v>701</v>
@@ -7296,13 +7326,13 @@
         <v>487301</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="M29" s="7">
         <v>1218</v>
@@ -7311,13 +7341,13 @@
         <v>980548</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7332,13 +7362,13 @@
         <v>673039</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30" s="7">
         <v>1004</v>
@@ -7347,13 +7377,13 @@
         <v>713886</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M30" s="7">
         <v>1685</v>
@@ -7362,13 +7392,13 @@
         <v>1386926</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7415,13 @@
         <v>55311</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>457</v>
+        <v>181</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>168</v>
+        <v>366</v>
       </c>
       <c r="H31" s="7">
         <v>73</v>
@@ -7400,13 +7430,13 @@
         <v>56624</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M31" s="7">
         <v>130</v>
@@ -7415,13 +7445,13 @@
         <v>111935</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>466</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>125</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,13 +7466,13 @@
         <v>52982</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>126</v>
+        <v>365</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>176</v>
+        <v>468</v>
       </c>
       <c r="H32" s="7">
         <v>41</v>
@@ -7451,13 +7481,13 @@
         <v>31430</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>354</v>
+        <v>127</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>203</v>
+        <v>84</v>
       </c>
       <c r="M32" s="7">
         <v>83</v>
@@ -7466,13 +7496,13 @@
         <v>84412</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7487,13 +7517,13 @@
         <v>221649</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="H33" s="7">
         <v>180</v>
@@ -7502,13 +7532,13 @@
         <v>117330</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>461</v>
+        <v>277</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="M33" s="7">
         <v>388</v>
@@ -7517,13 +7547,13 @@
         <v>338979</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>159</v>
+        <v>473</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7538,13 +7568,13 @@
         <v>109835</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>202</v>
+        <v>476</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="H34" s="7">
         <v>103</v>
@@ -7553,13 +7583,13 @@
         <v>75196</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>240</v>
+        <v>397</v>
       </c>
       <c r="M34" s="7">
         <v>191</v>
@@ -7568,19 +7598,19 @@
         <v>185031</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>361</v>
+        <v>477</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C35" s="7">
         <v>165</v>
@@ -7589,13 +7619,13 @@
         <v>201522</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>308</v>
+        <v>453</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="H35" s="7">
         <v>287</v>
@@ -7604,13 +7634,13 @@
         <v>214811</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>469</v>
+        <v>309</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="M35" s="7">
         <v>452</v>
@@ -7619,19 +7649,19 @@
         <v>416332</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>389</v>
+        <v>484</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7">
         <v>96</v>
@@ -7640,13 +7670,13 @@
         <v>113807</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="H36" s="7">
         <v>260</v>
@@ -7655,13 +7685,13 @@
         <v>186003</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="M36" s="7">
         <v>356</v>
@@ -7670,19 +7700,19 @@
         <v>299809</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C37" s="7">
         <v>32</v>
@@ -7691,13 +7721,13 @@
         <v>38220</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>483</v>
+        <v>37</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H37" s="7">
         <v>52</v>
@@ -7706,13 +7736,13 @@
         <v>40043</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>146</v>
+        <v>386</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>484</v>
+        <v>211</v>
       </c>
       <c r="M37" s="7">
         <v>84</v>
@@ -7721,19 +7751,19 @@
         <v>78263</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>217</v>
+        <v>428</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>259</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" s="7">
         <v>2673</v>
@@ -7742,43 +7772,43 @@
         <v>2578554</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="H38" s="7">
         <v>4349</v>
       </c>
       <c r="I38" s="7">
-        <v>3072148</v>
+        <v>3072147</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="M38" s="7">
         <v>7022</v>
       </c>
       <c r="N38" s="7">
-        <v>5650702</v>
+        <v>5650701</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>408</v>
+        <v>500</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,48 +7823,48 @@
         <v>3371880</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" s="7">
         <v>5345</v>
       </c>
       <c r="I39" s="7">
-        <v>3793584</v>
+        <v>3793583</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M39" s="7">
         <v>8706</v>
       </c>
       <c r="N39" s="7">
-        <v>7165464</v>
+        <v>7165463</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B02-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13D1215D-954C-4418-AB6C-38AEB8694609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5FB0B35-3196-41F0-ADEC-3D23B0F00B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{978C1D5C-8B76-414F-B743-F9C80879A567}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{871DFD59-861F-4860-B202-F6FD98108829}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="507">
   <si>
     <t>Población según el número de días a la semana que realiza gimnasia suave juegos que requieren poco esfuerzo y similares en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -76,1413 +76,1434 @@
     <t>1,67%</t>
   </si>
   <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>Ningun dia/semana</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza gimnasia suave juegos que requieren poco esfuerzo y similares en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza gimnasia suave juegos que requieren poco esfuerzo y similares en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>Ningun dia/semana</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza gimnasia suave juegos que requieren poco esfuerzo y similares en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza gimnasia suave juegos que requieren poco esfuerzo y similares en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
     <t>4,86%</t>
   </si>
   <si>
@@ -1493,15 +1514,6 @@
   </si>
   <si>
     <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
   </si>
   <si>
     <t>4,18%</t>
@@ -1958,7 +1970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE160DD-CD45-45CA-9883-3DDE6B0B541C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402F716C-FA89-44E7-A67E-CF4A3889648A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2199,13 +2211,13 @@
         <v>5216</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -2214,19 +2226,19 @@
         <v>9363</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -2235,13 +2247,13 @@
         <v>3189</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2250,13 +2262,13 @@
         <v>1045</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2265,19 +2277,19 @@
         <v>4233</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
         <v>11</v>
@@ -2286,13 +2298,13 @@
         <v>12270</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -2301,13 +2313,13 @@
         <v>16636</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -2316,19 +2328,19 @@
         <v>28906</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
         <v>9</v>
@@ -2337,13 +2349,13 @@
         <v>10252</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -2352,13 +2364,13 @@
         <v>16926</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M9" s="7">
         <v>25</v>
@@ -2367,19 +2379,19 @@
         <v>27178</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="7">
         <v>2</v>
@@ -2388,13 +2400,13 @@
         <v>1981</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2403,13 +2415,13 @@
         <v>4158</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2418,19 +2430,19 @@
         <v>6139</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="7">
         <v>862</v>
@@ -2439,13 +2451,13 @@
         <v>923452</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H11" s="7">
         <v>1200</v>
@@ -2454,13 +2466,13 @@
         <v>1288759</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M11" s="7">
         <v>2062</v>
@@ -2469,13 +2481,13 @@
         <v>2212213</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,13 +2502,13 @@
         <v>972575</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1247</v>
@@ -2505,13 +2517,13 @@
         <v>1337796</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>2153</v>
@@ -2520,18 +2532,18 @@
         <v>2310372</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2543,13 +2555,13 @@
         <v>22748</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -2558,10 +2570,10 @@
         <v>12362</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>88</v>
@@ -2576,7 +2588,7 @@
         <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>90</v>
@@ -2594,13 +2606,13 @@
         <v>7071</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -2663,10 +2675,10 @@
         <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>56</v>
@@ -2675,19 +2687,19 @@
         <v>57969</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="7">
         <v>7</v>
@@ -2696,10 +2708,10 @@
         <v>6806</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>107</v>
@@ -2717,7 +2729,7 @@
         <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2726,19 +2738,19 @@
         <v>11048</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" s="7">
         <v>43</v>
@@ -2747,13 +2759,13 @@
         <v>43746</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -2762,13 +2774,13 @@
         <v>28552</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -2777,10 +2789,10 @@
         <v>72299</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>119</v>
@@ -2789,7 +2801,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" s="7">
         <v>62</v>
@@ -2813,13 +2825,13 @@
         <v>39942</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>101</v>
@@ -2828,19 +2840,19 @@
         <v>107402</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="7">
         <v>23</v>
@@ -2849,13 +2861,13 @@
         <v>24669</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -2864,13 +2876,13 @@
         <v>18756</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -2879,19 +2891,19 @@
         <v>43425</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="7">
         <v>1661</v>
@@ -2900,13 +2912,13 @@
         <v>1761053</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>1505</v>
@@ -2915,13 +2927,13 @@
         <v>1619565</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>3166</v>
@@ -2930,13 +2942,13 @@
         <v>3380618</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2963,13 @@
         <v>1963957</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H21" s="7">
         <v>1634</v>
@@ -2966,13 +2978,13 @@
         <v>1755909</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M21" s="7">
         <v>3490</v>
@@ -2981,18 +2993,18 @@
         <v>3719866</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3004,13 +3016,13 @@
         <v>8131</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3037,7 +3049,7 @@
         <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>150</v>
@@ -3061,7 +3073,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3073,10 +3085,10 @@
         <v>22</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3091,7 +3103,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,10 +3118,10 @@
         <v>8947</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>157</v>
@@ -3121,13 +3133,13 @@
         <v>8641</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -3136,19 +3148,19 @@
         <v>17588</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>4</v>
@@ -3157,13 +3169,13 @@
         <v>3950</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -3172,13 +3184,13 @@
         <v>5418</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -3187,19 +3199,19 @@
         <v>9368</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
         <v>14</v>
@@ -3208,13 +3220,13 @@
         <v>14010</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -3223,13 +3235,13 @@
         <v>9191</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -3238,19 +3250,19 @@
         <v>23200</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C27" s="7">
         <v>19</v>
@@ -3259,13 +3271,13 @@
         <v>19629</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -3274,13 +3286,13 @@
         <v>10109</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M27" s="7">
         <v>29</v>
@@ -3289,19 +3301,19 @@
         <v>29738</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="7">
         <v>3</v>
@@ -3310,13 +3322,13 @@
         <v>2959</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -3325,13 +3337,13 @@
         <v>7349</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -3340,19 +3352,19 @@
         <v>10308</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="7">
         <v>382</v>
@@ -3361,13 +3373,13 @@
         <v>422543</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>372</v>
@@ -3376,13 +3388,13 @@
         <v>411212</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>754</v>
@@ -3391,13 +3403,13 @@
         <v>833756</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3424,13 @@
         <v>481181</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H30" s="7">
         <v>412</v>
@@ -3427,13 +3439,13 @@
         <v>458631</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M30" s="7">
         <v>850</v>
@@ -3442,13 +3454,13 @@
         <v>939812</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3477,13 @@
         <v>47123</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H31" s="7">
         <v>20</v>
@@ -3480,10 +3492,10 @@
         <v>22209</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>12</v>
@@ -3498,10 +3510,10 @@
         <v>198</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3528,13 @@
         <v>9124</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -3531,13 +3543,13 @@
         <v>6844</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -3549,10 +3561,10 @@
         <v>14</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3579,13 @@
         <v>43497</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="H33" s="7">
         <v>36</v>
@@ -3582,13 +3594,13 @@
         <v>41422</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="M33" s="7">
         <v>78</v>
@@ -3597,19 +3609,19 @@
         <v>84919</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>203</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="7">
         <v>14</v>
@@ -3618,13 +3630,13 @@
         <v>13944</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -3633,13 +3645,13 @@
         <v>10705</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M34" s="7">
         <v>24</v>
@@ -3648,19 +3660,19 @@
         <v>24649</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C35" s="7">
         <v>68</v>
@@ -3669,13 +3681,13 @@
         <v>70025</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H35" s="7">
         <v>50</v>
@@ -3684,13 +3696,13 @@
         <v>54379</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="M35" s="7">
         <v>118</v>
@@ -3699,19 +3711,19 @@
         <v>124405</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7">
         <v>90</v>
@@ -3720,13 +3732,13 @@
         <v>97341</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H36" s="7">
         <v>65</v>
@@ -3735,13 +3747,13 @@
         <v>66977</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M36" s="7">
         <v>155</v>
@@ -3750,19 +3762,19 @@
         <v>164318</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="7">
         <v>28</v>
@@ -3771,13 +3783,13 @@
         <v>29609</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H37" s="7">
         <v>28</v>
@@ -3786,13 +3798,13 @@
         <v>30263</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="M37" s="7">
         <v>56</v>
@@ -3801,19 +3813,19 @@
         <v>59872</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="7">
         <v>2905</v>
@@ -3822,13 +3834,13 @@
         <v>3107049</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H38" s="7">
         <v>3077</v>
@@ -3837,13 +3849,13 @@
         <v>3319537</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M38" s="7">
         <v>5982</v>
@@ -3852,13 +3864,13 @@
         <v>6426586</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3885,13 @@
         <v>3417714</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H39" s="7">
         <v>3293</v>
@@ -3888,13 +3900,13 @@
         <v>3552336</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M39" s="7">
         <v>6493</v>
@@ -3903,18 +3915,18 @@
         <v>6970050</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3933,7 +3945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F5893C-14CC-4DE5-87FE-576B9D676ECD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69FCE59-B9B5-4C49-B6AE-091EC3BB3D26}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3950,7 +3962,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4057,13 +4069,13 @@
         <v>9729</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4072,13 +4084,13 @@
         <v>10367</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4087,13 +4099,13 @@
         <v>20095</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4120,13 @@
         <v>3563</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4126,10 +4138,10 @@
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4138,13 +4150,13 @@
         <v>3563</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4171,13 @@
         <v>8716</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4174,13 +4186,13 @@
         <v>6350</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4189,19 +4201,19 @@
         <v>15066</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
@@ -4210,13 +4222,13 @@
         <v>2042</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4225,13 +4237,13 @@
         <v>4783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4240,19 +4252,19 @@
         <v>6826</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -4261,13 +4273,13 @@
         <v>3622</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>243</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -4276,13 +4288,13 @@
         <v>12818</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -4294,16 +4306,16 @@
         <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
         <v>6</v>
@@ -4312,13 +4324,13 @@
         <v>6154</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -4327,13 +4339,13 @@
         <v>14422</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -4342,19 +4354,19 @@
         <v>20576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="7">
         <v>6</v>
@@ -4363,13 +4375,13 @@
         <v>5897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4378,13 +4390,13 @@
         <v>3886</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -4393,19 +4405,19 @@
         <v>9783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>99</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="7">
         <v>723</v>
@@ -4414,13 +4426,13 @@
         <v>714626</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H11" s="7">
         <v>846</v>
@@ -4429,13 +4441,13 @@
         <v>942034</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M11" s="7">
         <v>1569</v>
@@ -4444,13 +4456,13 @@
         <v>1656659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4477,13 @@
         <v>754347</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>892</v>
@@ -4480,13 +4492,13 @@
         <v>994660</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>1654</v>
@@ -4495,18 +4507,18 @@
         <v>1749007</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4518,13 +4530,13 @@
         <v>30601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>257</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4533,13 +4545,13 @@
         <v>15261</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>30</v>
+        <v>258</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -4548,13 +4560,13 @@
         <v>45862</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4581,13 @@
         <v>4024</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -4584,13 +4596,13 @@
         <v>10576</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>264</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -4599,13 +4611,13 @@
         <v>14600</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4632,13 @@
         <v>45697</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -4635,13 +4647,13 @@
         <v>26283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>90</v>
+        <v>262</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="M15" s="7">
         <v>70</v>
@@ -4650,19 +4662,19 @@
         <v>71980</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>267</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="7">
         <v>19</v>
@@ -4671,13 +4683,13 @@
         <v>20709</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>130</v>
+        <v>265</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4689,10 +4701,10 @@
         <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -4701,19 +4713,19 @@
         <v>32111</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>269</v>
+        <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" s="7">
         <v>59</v>
@@ -4722,13 +4734,13 @@
         <v>61677</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>271</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4737,13 +4749,13 @@
         <v>47072</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -4752,19 +4764,19 @@
         <v>108750</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" s="7">
         <v>57</v>
@@ -4773,13 +4785,13 @@
         <v>61254</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>273</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H18" s="7">
         <v>50</v>
@@ -4788,13 +4800,13 @@
         <v>51837</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M18" s="7">
         <v>107</v>
@@ -4803,19 +4815,19 @@
         <v>113091</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>271</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="7">
         <v>35</v>
@@ -4824,13 +4836,13 @@
         <v>37455</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -4839,13 +4851,13 @@
         <v>34495</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>283</v>
+        <v>85</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>284</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -4854,19 +4866,19 @@
         <v>71951</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="7">
         <v>1705</v>
@@ -4875,13 +4887,13 @@
         <v>1814967</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H20" s="7">
         <v>1718</v>
@@ -4890,13 +4902,13 @@
         <v>1791374</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>3423</v>
@@ -4905,13 +4917,13 @@
         <v>3606341</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,13 +4938,13 @@
         <v>2076385</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H21" s="7">
         <v>1908</v>
@@ -4941,13 +4953,13 @@
         <v>1988300</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M21" s="7">
         <v>3860</v>
@@ -4956,18 +4968,18 @@
         <v>4064685</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4979,13 +4991,13 @@
         <v>17464</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>295</v>
+        <v>53</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -4994,13 +5006,13 @@
         <v>6609</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -5009,13 +5021,13 @@
         <v>24073</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,13 +5042,13 @@
         <v>3165</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>297</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>53</v>
+        <v>298</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5048,10 +5060,10 @@
         <v>22</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -5060,13 +5072,13 @@
         <v>3165</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,13 +5093,13 @@
         <v>16891</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -5099,10 +5111,10 @@
         <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -5111,19 +5123,19 @@
         <v>24933</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>7</v>
@@ -5132,10 +5144,10 @@
         <v>7575</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>277</v>
@@ -5147,13 +5159,13 @@
         <v>5072</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>303</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -5162,19 +5174,19 @@
         <v>12647</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>306</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
         <v>16</v>
@@ -5183,13 +5195,13 @@
         <v>19092</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -5198,13 +5210,13 @@
         <v>22167</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -5213,19 +5225,19 @@
         <v>41259</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C27" s="7">
         <v>18</v>
@@ -5234,13 +5246,13 @@
         <v>18656</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H27" s="7">
         <v>24</v>
@@ -5249,13 +5261,13 @@
         <v>25170</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M27" s="7">
         <v>42</v>
@@ -5264,19 +5276,19 @@
         <v>43826</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>320</v>
+        <v>166</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="7">
         <v>14</v>
@@ -5285,13 +5297,13 @@
         <v>16325</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>168</v>
+        <v>320</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -5300,13 +5312,13 @@
         <v>16308</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -5315,19 +5327,19 @@
         <v>32633</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="7">
         <v>413</v>
@@ -5336,13 +5348,13 @@
         <v>447718</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H29" s="7">
         <v>445</v>
@@ -5351,13 +5363,13 @@
         <v>465773</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M29" s="7">
         <v>858</v>
@@ -5366,13 +5378,13 @@
         <v>913491</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5399,13 @@
         <v>546886</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H30" s="7">
         <v>526</v>
@@ -5402,13 +5414,13 @@
         <v>549140</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M30" s="7">
         <v>1027</v>
@@ -5417,13 +5429,13 @@
         <v>1096026</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5452,13 @@
         <v>57794</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>335</v>
+        <v>63</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>336</v>
+        <v>271</v>
       </c>
       <c r="H31" s="7">
         <v>30</v>
@@ -5455,13 +5467,13 @@
         <v>32236</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>200</v>
+        <v>334</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>337</v>
+        <v>182</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>60</v>
+        <v>262</v>
       </c>
       <c r="M31" s="7">
         <v>84</v>
@@ -5470,13 +5482,13 @@
         <v>90030</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>338</v>
+        <v>90</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>197</v>
+        <v>335</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,10 +5506,10 @@
         <v>95</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -5506,13 +5518,13 @@
         <v>10576</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -5521,13 +5533,13 @@
         <v>21328</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,13 +5554,13 @@
         <v>71304</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>11</v>
+        <v>336</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H33" s="7">
         <v>40</v>
@@ -5557,13 +5569,13 @@
         <v>40674</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>262</v>
+        <v>17</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="M33" s="7">
         <v>108</v>
@@ -5572,19 +5584,19 @@
         <v>111978</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>341</v>
+        <v>208</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="7">
         <v>28</v>
@@ -5593,10 +5605,10 @@
         <v>30326</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>338</v>
@@ -5608,13 +5620,13 @@
         <v>21258</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>337</v>
+        <v>265</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="M34" s="7">
         <v>48</v>
@@ -5623,19 +5635,19 @@
         <v>51584</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>85</v>
+        <v>339</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C35" s="7">
         <v>78</v>
@@ -5644,13 +5656,13 @@
         <v>84391</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>186</v>
+        <v>312</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>345</v>
+        <v>148</v>
       </c>
       <c r="H35" s="7">
         <v>77</v>
@@ -5659,13 +5671,13 @@
         <v>82058</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M35" s="7">
         <v>155</v>
@@ -5674,19 +5686,19 @@
         <v>166449</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7">
         <v>81</v>
@@ -5695,13 +5707,13 @@
         <v>86064</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>53</v>
+        <v>212</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H36" s="7">
         <v>86</v>
@@ -5710,13 +5722,13 @@
         <v>91429</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>352</v>
+        <v>291</v>
       </c>
       <c r="M36" s="7">
         <v>167</v>
@@ -5725,19 +5737,19 @@
         <v>177492</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>173</v>
+        <v>347</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>353</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="7">
         <v>55</v>
@@ -5746,13 +5758,13 @@
         <v>59677</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>354</v>
+        <v>295</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H37" s="7">
         <v>54</v>
@@ -5764,10 +5776,10 @@
         <v>98</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>131</v>
+        <v>348</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>59</v>
+        <v>349</v>
       </c>
       <c r="M37" s="7">
         <v>109</v>
@@ -5776,19 +5788,19 @@
         <v>114366</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>170</v>
+        <v>336</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>217</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="7">
         <v>2841</v>
@@ -5797,13 +5809,13 @@
         <v>2977310</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>134</v>
+        <v>351</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H38" s="7">
         <v>3009</v>
@@ -5812,13 +5824,13 @@
         <v>3199180</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M38" s="7">
         <v>5850</v>
@@ -5827,13 +5839,13 @@
         <v>6176491</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5860,13 @@
         <v>3377618</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H39" s="7">
         <v>3326</v>
@@ -5863,13 +5875,13 @@
         <v>3532100</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M39" s="7">
         <v>6541</v>
@@ -5878,18 +5890,18 @@
         <v>6909718</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -5908,7 +5920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A06ACC3-63CD-4FDE-A4F4-342E02CA2A62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F08821-C6D4-4EB2-993B-B7DB4127F077}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5925,7 +5937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6032,13 +6044,13 @@
         <v>9590</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -6047,13 +6059,13 @@
         <v>5299</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>95</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -6062,13 +6074,13 @@
         <v>14888</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>365</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6095,13 @@
         <v>5501</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>147</v>
+        <v>258</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>366</v>
+        <v>57</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6098,13 +6110,13 @@
         <v>4298</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -6113,13 +6125,13 @@
         <v>9799</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6146,13 @@
         <v>14607</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>132</v>
+        <v>363</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -6149,13 +6161,13 @@
         <v>11208</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>348</v>
+        <v>212</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -6164,19 +6176,19 @@
         <v>25814</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>7</v>
@@ -6185,13 +6197,13 @@
         <v>7410</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>369</v>
+        <v>282</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>97</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -6206,7 +6218,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -6215,19 +6227,19 @@
         <v>9740</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -6236,13 +6248,13 @@
         <v>6552</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>97</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>371</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -6251,13 +6263,13 @@
         <v>18435</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>212</v>
+        <v>367</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>211</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -6266,19 +6278,19 @@
         <v>24987</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>90</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
         <v>5</v>
@@ -6287,13 +6299,13 @@
         <v>3762</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>341</v>
+        <v>208</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -6302,13 +6314,13 @@
         <v>15760</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -6317,19 +6329,19 @@
         <v>19523</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>12</v>
+        <v>371</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="7">
         <v>4</v>
@@ -6338,13 +6350,13 @@
         <v>2962</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -6353,13 +6365,13 @@
         <v>5863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -6368,19 +6380,19 @@
         <v>8825</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="7">
         <v>628</v>
@@ -6389,13 +6401,13 @@
         <v>491251</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H11" s="7">
         <v>1314</v>
@@ -6404,13 +6416,13 @@
         <v>768813</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M11" s="7">
         <v>1942</v>
@@ -6419,13 +6431,13 @@
         <v>1260064</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,13 +6452,13 @@
         <v>541634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1424</v>
@@ -6455,13 +6467,13 @@
         <v>832006</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>2115</v>
@@ -6470,18 +6482,18 @@
         <v>1373640</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6493,13 +6505,13 @@
         <v>28619</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>105</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -6511,10 +6523,10 @@
         <v>98</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>99</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -6523,13 +6535,13 @@
         <v>63470</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>237</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6556,13 @@
         <v>40136</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -6562,10 +6574,10 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>262</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -6574,13 +6586,13 @@
         <v>58996</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,13 +6607,13 @@
         <v>160507</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H15" s="7">
         <v>120</v>
@@ -6610,10 +6622,10 @@
         <v>80374</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>169</v>
+        <v>390</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>320</v>
+        <v>391</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>392</v>
@@ -6628,16 +6640,16 @@
         <v>393</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="7">
         <v>63</v>
@@ -6646,13 +6658,13 @@
         <v>83367</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>261</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>321</v>
+        <v>397</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -6661,13 +6673,13 @@
         <v>46783</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>263</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M16" s="7">
         <v>130</v>
@@ -6676,19 +6688,19 @@
         <v>130150</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" s="7">
         <v>110</v>
@@ -6730,16 +6742,16 @@
         <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" s="7">
         <v>68</v>
@@ -6748,10 +6760,10 @@
         <v>86584</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>409</v>
@@ -6778,19 +6790,19 @@
         <v>194110</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>171</v>
+        <v>413</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="7">
         <v>18</v>
@@ -6799,13 +6811,13 @@
         <v>23401</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>365</v>
+        <v>152</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -6814,13 +6826,13 @@
         <v>20166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -6832,16 +6844,16 @@
         <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="7">
         <v>1528</v>
@@ -6901,13 +6913,13 @@
         <v>2157207</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H21" s="7">
         <v>2917</v>
@@ -6916,13 +6928,13 @@
         <v>2247691</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M21" s="7">
         <v>4906</v>
@@ -6931,18 +6943,18 @@
         <v>4404898</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6954,13 +6966,13 @@
         <v>17103</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>207</v>
+        <v>425</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -6969,13 +6981,13 @@
         <v>16474</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>275</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -6984,13 +6996,13 @@
         <v>33577</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>282</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7005,13 +7017,13 @@
         <v>7346</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>428</v>
+        <v>266</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -7020,13 +7032,13 @@
         <v>8271</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -7035,13 +7047,13 @@
         <v>15617</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,13 +7068,13 @@
         <v>46536</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H24" s="7">
         <v>38</v>
@@ -7071,13 +7083,13 @@
         <v>25748</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>157</v>
+        <v>433</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>347</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M24" s="7">
         <v>79</v>
@@ -7086,19 +7098,19 @@
         <v>72285</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>302</v>
+        <v>435</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>18</v>
@@ -7107,13 +7119,13 @@
         <v>19059</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>349</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>335</v>
+        <v>63</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>439</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -7122,13 +7134,13 @@
         <v>26083</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>285</v>
+        <v>441</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -7137,19 +7149,19 @@
         <v>45141</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
         <v>47</v>
@@ -7158,13 +7170,13 @@
         <v>54433</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H26" s="7">
         <v>97</v>
@@ -7173,13 +7185,13 @@
         <v>73278</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="M26" s="7">
         <v>144</v>
@@ -7188,19 +7200,19 @@
         <v>127711</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C27" s="7">
         <v>23</v>
@@ -7209,13 +7221,13 @@
         <v>23461</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="H27" s="7">
         <v>88</v>
@@ -7224,13 +7236,13 @@
         <v>62716</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="M27" s="7">
         <v>111</v>
@@ -7239,19 +7251,19 @@
         <v>86177</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="7">
         <v>10</v>
@@ -7260,13 +7272,13 @@
         <v>11856</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>64</v>
+        <v>461</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -7275,13 +7287,13 @@
         <v>14014</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -7290,19 +7302,19 @@
         <v>25870</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>349</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="7">
         <v>517</v>
@@ -7311,13 +7323,13 @@
         <v>493246</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="H29" s="7">
         <v>701</v>
@@ -7326,13 +7338,13 @@
         <v>487301</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="M29" s="7">
         <v>1218</v>
@@ -7341,13 +7353,13 @@
         <v>980548</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7362,13 +7374,13 @@
         <v>673039</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H30" s="7">
         <v>1004</v>
@@ -7377,13 +7389,13 @@
         <v>713886</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M30" s="7">
         <v>1685</v>
@@ -7392,13 +7404,13 @@
         <v>1386926</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,13 +7427,13 @@
         <v>55311</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>366</v>
+        <v>57</v>
       </c>
       <c r="H31" s="7">
         <v>73</v>
@@ -7430,13 +7442,13 @@
         <v>56624</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>472</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c r="M31" s="7">
         <v>130</v>
@@ -7445,13 +7457,13 @@
         <v>111935</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>466</v>
+        <v>19</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7469,10 +7481,10 @@
         <v>101</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>365</v>
+        <v>152</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H32" s="7">
         <v>41</v>
@@ -7481,13 +7493,13 @@
         <v>31430</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>127</v>
+        <v>475</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M32" s="7">
         <v>83</v>
@@ -7496,10 +7508,10 @@
         <v>84412</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>200</v>
+        <v>334</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>98</v>
@@ -7517,13 +7529,13 @@
         <v>221649</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="H33" s="7">
         <v>180</v>
@@ -7532,13 +7544,13 @@
         <v>117330</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="M33" s="7">
         <v>388</v>
@@ -7547,19 +7559,19 @@
         <v>338979</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="7">
         <v>88</v>
@@ -7568,13 +7580,13 @@
         <v>109835</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="H34" s="7">
         <v>103</v>
@@ -7583,13 +7595,13 @@
         <v>75196</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>149</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M34" s="7">
         <v>191</v>
@@ -7598,19 +7610,19 @@
         <v>185031</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>477</v>
+        <v>174</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>100</v>
+        <v>484</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>478</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C35" s="7">
         <v>165</v>
@@ -7619,13 +7631,13 @@
         <v>201522</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="H35" s="7">
         <v>287</v>
@@ -7634,13 +7646,13 @@
         <v>214811</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>309</v>
+        <v>487</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="M35" s="7">
         <v>452</v>
@@ -7649,19 +7661,19 @@
         <v>416332</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>485</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7">
         <v>96</v>
@@ -7670,13 +7682,13 @@
         <v>113807</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>486</v>
+        <v>302</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>487</v>
+        <v>337</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H36" s="7">
         <v>260</v>
@@ -7685,13 +7697,13 @@
         <v>186003</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="M36" s="7">
         <v>356</v>
@@ -7700,19 +7712,19 @@
         <v>299809</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="7">
         <v>32</v>
@@ -7721,13 +7733,13 @@
         <v>38220</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>132</v>
+        <v>363</v>
       </c>
       <c r="H37" s="7">
         <v>52</v>
@@ -7736,13 +7748,13 @@
         <v>40043</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>386</v>
+        <v>99</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>211</v>
+        <v>368</v>
       </c>
       <c r="M37" s="7">
         <v>84</v>
@@ -7751,19 +7763,19 @@
         <v>78263</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>428</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>369</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="7">
         <v>2673</v>
@@ -7772,13 +7784,13 @@
         <v>2578554</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="H38" s="7">
         <v>4349</v>
@@ -7787,13 +7799,13 @@
         <v>3072147</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="M38" s="7">
         <v>7022</v>
@@ -7802,13 +7814,13 @@
         <v>5650701</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,13 +7835,13 @@
         <v>3371880</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H39" s="7">
         <v>5345</v>
@@ -7838,13 +7850,13 @@
         <v>3793583</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M39" s="7">
         <v>8706</v>
@@ -7853,18 +7865,18 @@
         <v>7165463</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5FB0B35-3196-41F0-ADEC-3D23B0F00B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBC50FF1-3ACF-444E-81BE-D166FEAB47A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{871DFD59-861F-4860-B202-F6FD98108829}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C09D7C08-62B9-407A-B2B1-4210AA5CFFF2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="493">
   <si>
     <t>Población según el número de días a la semana que realiza gimnasia suave juegos que requieren poco esfuerzo y similares en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -76,1489 +76,1447 @@
     <t>1,67%</t>
   </si>
   <si>
-    <t>0,93%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>Ningun dia/semana</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza gimnasia suave juegos que requieren poco esfuerzo y similares en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza gimnasia suave juegos que requieren poco esfuerzo y similares en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>Ningun dia/semana</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza gimnasia suave juegos que requieren poco esfuerzo y similares en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza gimnasia suave juegos que requieren poco esfuerzo y similares en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
     <t>76,47%</t>
   </si>
   <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
   </si>
   <si>
     <t>80,98%</t>
   </si>
   <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402F716C-FA89-44E7-A67E-CF4A3889648A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46EC55C-A4E0-441E-8B2F-3FBFDCD87EE4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2211,13 +2169,13 @@
         <v>5216</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -2226,19 +2184,19 @@
         <v>9363</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -2247,13 +2205,13 @@
         <v>3189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2262,13 +2220,13 @@
         <v>1045</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2277,19 +2235,19 @@
         <v>4233</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>11</v>
@@ -2298,13 +2256,13 @@
         <v>12270</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -2313,13 +2271,13 @@
         <v>16636</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -2328,10 +2286,10 @@
         <v>28906</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>53</v>
@@ -2406,7 +2364,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2415,13 +2373,13 @@
         <v>4158</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2430,10 +2388,10 @@
         <v>6139</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>70</v>
@@ -2558,10 +2516,10 @@
         <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -2570,13 +2528,13 @@
         <v>12362</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -2585,10 +2543,10 @@
         <v>35111</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>90</v>
@@ -2606,13 +2564,13 @@
         <v>7071</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -2621,13 +2579,13 @@
         <v>4923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -2636,13 +2594,13 @@
         <v>11994</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2615,13 @@
         <v>30404</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -2672,13 +2630,13 @@
         <v>27566</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>56</v>
@@ -2687,19 +2645,19 @@
         <v>57969</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="7">
         <v>7</v>
@@ -2708,13 +2666,13 @@
         <v>6806</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -2723,13 +2681,13 @@
         <v>4243</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2738,19 +2696,19 @@
         <v>11048</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="7">
         <v>43</v>
@@ -2759,13 +2717,13 @@
         <v>43746</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -2774,13 +2732,13 @@
         <v>28552</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -2789,13 +2747,13 @@
         <v>72299</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2768,13 @@
         <v>67460</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -2825,13 +2783,13 @@
         <v>39942</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>101</v>
@@ -2840,13 +2798,13 @@
         <v>107402</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2819,13 @@
         <v>24669</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -2876,13 +2834,13 @@
         <v>18756</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -2891,13 +2849,13 @@
         <v>43425</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2870,13 @@
         <v>1761053</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>1505</v>
@@ -2927,13 +2885,13 @@
         <v>1619565</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>3166</v>
@@ -2942,13 +2900,13 @@
         <v>3380618</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,7 +2962,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3016,13 +2974,13 @@
         <v>8131</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3031,13 +2989,13 @@
         <v>6711</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -3046,13 +3004,13 @@
         <v>14842</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3025,13 @@
         <v>1012</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3085,10 +3043,10 @@
         <v>22</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3103,7 +3061,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3076,13 @@
         <v>8947</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -3133,13 +3091,13 @@
         <v>8641</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -3148,19 +3106,19 @@
         <v>17588</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>4</v>
@@ -3169,13 +3127,13 @@
         <v>3950</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -3190,7 +3148,7 @@
         <v>30</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -3199,19 +3157,19 @@
         <v>9368</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>14</v>
@@ -3220,13 +3178,13 @@
         <v>14010</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -3235,13 +3193,13 @@
         <v>9191</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -3250,13 +3208,13 @@
         <v>23200</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3229,13 @@
         <v>19629</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -3286,13 +3244,13 @@
         <v>10109</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="M27" s="7">
         <v>29</v>
@@ -3301,13 +3259,13 @@
         <v>29738</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3280,13 @@
         <v>2959</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -3337,13 +3295,13 @@
         <v>7349</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -3352,13 +3310,13 @@
         <v>10308</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3331,13 @@
         <v>422543</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="H29" s="7">
         <v>372</v>
@@ -3388,13 +3346,13 @@
         <v>411212</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="M29" s="7">
         <v>754</v>
@@ -3403,13 +3361,13 @@
         <v>833756</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3435,13 @@
         <v>47123</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="H31" s="7">
         <v>20</v>
@@ -3492,13 +3450,13 @@
         <v>22209</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="M31" s="7">
         <v>64</v>
@@ -3507,13 +3465,13 @@
         <v>69332</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3486,13 @@
         <v>9124</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -3543,13 +3501,13 @@
         <v>6844</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -3564,7 +3522,7 @@
         <v>24</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3540,7 @@
         <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>63</v>
@@ -3594,13 +3552,13 @@
         <v>41422</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M33" s="7">
         <v>78</v>
@@ -3609,19 +3567,19 @@
         <v>84919</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C34" s="7">
         <v>14</v>
@@ -3630,13 +3588,13 @@
         <v>13944</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -3645,13 +3603,13 @@
         <v>10705</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="M34" s="7">
         <v>24</v>
@@ -3660,19 +3618,19 @@
         <v>24649</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="7">
         <v>68</v>
@@ -3681,13 +3639,13 @@
         <v>70025</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H35" s="7">
         <v>50</v>
@@ -3696,13 +3654,13 @@
         <v>54379</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="M35" s="7">
         <v>118</v>
@@ -3711,13 +3669,13 @@
         <v>124405</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3690,13 @@
         <v>97341</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H36" s="7">
         <v>65</v>
@@ -3747,13 +3705,13 @@
         <v>66977</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="M36" s="7">
         <v>155</v>
@@ -3762,13 +3720,13 @@
         <v>164318</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3741,13 @@
         <v>29609</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H37" s="7">
         <v>28</v>
@@ -3798,13 +3756,13 @@
         <v>30263</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="M37" s="7">
         <v>56</v>
@@ -3813,13 +3771,13 @@
         <v>59872</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3792,13 @@
         <v>3107049</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H38" s="7">
         <v>3077</v>
@@ -3849,13 +3807,13 @@
         <v>3319537</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M38" s="7">
         <v>5982</v>
@@ -3864,13 +3822,13 @@
         <v>6426586</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,7 +3884,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3945,7 +3903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69FCE59-B9B5-4C49-B6AE-091EC3BB3D26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C04B74B-505B-4EDD-AD22-1E03C2D19F95}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3962,7 +3920,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4069,13 +4027,13 @@
         <v>9729</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4087,10 +4045,10 @@
         <v>31</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4099,13 +4057,13 @@
         <v>20095</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4078,13 @@
         <v>3563</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4138,10 +4096,10 @@
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4153,10 +4111,10 @@
         <v>65</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,10 +4132,10 @@
         <v>83</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>113</v>
+        <v>233</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4186,13 +4144,13 @@
         <v>6350</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>46</v>
+        <v>228</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4201,19 +4159,19 @@
         <v>15066</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
@@ -4222,13 +4180,13 @@
         <v>2042</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>88</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4237,13 +4195,13 @@
         <v>4783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4252,19 +4210,19 @@
         <v>6826</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>240</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -4273,13 +4231,13 @@
         <v>3622</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -4288,13 +4246,13 @@
         <v>12818</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -4303,13 +4261,13 @@
         <v>16440</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,13 +4282,13 @@
         <v>6154</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -4339,13 +4297,13 @@
         <v>14422</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -4357,10 +4315,10 @@
         <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>244</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,13 +4333,13 @@
         <v>5897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4390,13 +4348,13 @@
         <v>3886</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -4405,13 +4363,13 @@
         <v>9783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>245</v>
+        <v>96</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4384,13 @@
         <v>714626</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
         <v>846</v>
@@ -4441,13 +4399,13 @@
         <v>942034</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>1569</v>
@@ -4456,13 +4414,13 @@
         <v>1656659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,13 +4488,13 @@
         <v>30601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4545,13 +4503,13 @@
         <v>15261</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -4560,13 +4518,13 @@
         <v>45862</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4539,13 @@
         <v>4024</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -4596,13 +4554,13 @@
         <v>10576</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -4611,13 +4569,13 @@
         <v>14600</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4590,13 @@
         <v>45697</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>261</v>
+        <v>122</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -4647,13 +4605,13 @@
         <v>26283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="M15" s="7">
         <v>70</v>
@@ -4662,19 +4620,19 @@
         <v>71980</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="7">
         <v>19</v>
@@ -4683,13 +4641,13 @@
         <v>20709</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>242</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4698,13 +4656,13 @@
         <v>11403</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>261</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -4713,19 +4671,19 @@
         <v>32111</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>266</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="7">
         <v>59</v>
@@ -4734,13 +4692,13 @@
         <v>61677</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4749,13 +4707,13 @@
         <v>47072</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -4764,13 +4722,13 @@
         <v>108750</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4743,13 @@
         <v>61254</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>274</v>
+        <v>108</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H18" s="7">
         <v>50</v>
@@ -4800,13 +4758,13 @@
         <v>51837</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M18" s="7">
         <v>107</v>
@@ -4815,13 +4773,13 @@
         <v>113091</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>277</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>278</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4794,13 @@
         <v>37455</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -4851,13 +4809,13 @@
         <v>34495</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -4866,13 +4824,13 @@
         <v>71951</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>241</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,13 +4845,13 @@
         <v>1814967</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>1718</v>
@@ -4902,13 +4860,13 @@
         <v>1791374</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>3423</v>
@@ -4917,13 +4875,13 @@
         <v>3606341</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,7 +4937,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4991,13 +4949,13 @@
         <v>17464</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -5006,13 +4964,13 @@
         <v>6609</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -5021,13 +4979,13 @@
         <v>24073</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,13 +5000,13 @@
         <v>3165</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>297</v>
+        <v>215</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5060,10 +5018,10 @@
         <v>22</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -5072,13 +5030,13 @@
         <v>3165</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5051,13 @@
         <v>16891</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>125</v>
+        <v>287</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>300</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -5108,13 +5066,13 @@
         <v>8041</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>301</v>
+        <v>13</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -5123,19 +5081,19 @@
         <v>24933</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>98</v>
+        <v>288</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>302</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>7</v>
@@ -5144,13 +5102,13 @@
         <v>7575</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5159,13 +5117,13 @@
         <v>5072</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>106</v>
+        <v>290</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -5174,19 +5132,19 @@
         <v>12647</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>16</v>
@@ -5195,13 +5153,13 @@
         <v>19092</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>304</v>
+        <v>142</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>305</v>
+        <v>104</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -5210,13 +5168,13 @@
         <v>22167</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -5225,13 +5183,13 @@
         <v>41259</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>121</v>
+        <v>267</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,13 +5204,13 @@
         <v>18656</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>312</v>
+        <v>104</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="H27" s="7">
         <v>24</v>
@@ -5261,13 +5219,13 @@
         <v>25170</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="M27" s="7">
         <v>42</v>
@@ -5276,13 +5234,13 @@
         <v>43826</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>166</v>
+        <v>305</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,13 +5255,13 @@
         <v>16325</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -5312,13 +5270,13 @@
         <v>16308</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -5327,13 +5285,13 @@
         <v>32633</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5306,13 @@
         <v>447718</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>445</v>
@@ -5363,13 +5321,13 @@
         <v>465773</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>858</v>
@@ -5378,13 +5336,13 @@
         <v>913491</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5410,13 @@
         <v>57794</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>63</v>
+        <v>321</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>271</v>
+        <v>98</v>
       </c>
       <c r="H31" s="7">
         <v>30</v>
@@ -5467,13 +5425,13 @@
         <v>32236</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>334</v>
+        <v>196</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="M31" s="7">
         <v>84</v>
@@ -5482,13 +5440,13 @@
         <v>90030</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>335</v>
+        <v>55</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,13 +5461,13 @@
         <v>10752</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -5518,13 +5476,13 @@
         <v>10576</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -5533,13 +5491,13 @@
         <v>21328</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>65</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,13 +5512,13 @@
         <v>71304</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>336</v>
+        <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="H33" s="7">
         <v>40</v>
@@ -5569,13 +5527,13 @@
         <v>40674</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="M33" s="7">
         <v>108</v>
@@ -5584,19 +5542,19 @@
         <v>111978</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>244</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C34" s="7">
         <v>28</v>
@@ -5605,13 +5563,13 @@
         <v>30326</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>265</v>
+        <v>93</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>338</v>
+        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>20</v>
@@ -5620,13 +5578,13 @@
         <v>21258</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="M34" s="7">
         <v>48</v>
@@ -5635,19 +5593,19 @@
         <v>51584</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>339</v>
+        <v>37</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>245</v>
+        <v>70</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="7">
         <v>78</v>
@@ -5656,13 +5614,13 @@
         <v>84391</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>148</v>
+        <v>326</v>
       </c>
       <c r="H35" s="7">
         <v>77</v>
@@ -5671,13 +5629,13 @@
         <v>82058</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>235</v>
+        <v>327</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>340</v>
+        <v>122</v>
       </c>
       <c r="M35" s="7">
         <v>155</v>
@@ -5686,13 +5644,13 @@
         <v>166449</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>342</v>
+        <v>211</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>343</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5665,13 @@
         <v>86064</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>212</v>
+        <v>330</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="H36" s="7">
         <v>86</v>
@@ -5722,13 +5680,13 @@
         <v>91429</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>345</v>
+        <v>202</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="M36" s="7">
         <v>167</v>
@@ -5737,13 +5695,13 @@
         <v>177492</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5716,13 @@
         <v>59677</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>295</v>
+        <v>234</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>113</v>
+        <v>208</v>
       </c>
       <c r="H37" s="7">
         <v>54</v>
@@ -5773,13 +5731,13 @@
         <v>54689</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="M37" s="7">
         <v>109</v>
@@ -5788,13 +5746,13 @@
         <v>114366</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5767,13 @@
         <v>2977310</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H38" s="7">
         <v>3009</v>
@@ -5824,13 +5782,13 @@
         <v>3199180</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="M38" s="7">
         <v>5850</v>
@@ -5839,13 +5797,13 @@
         <v>6176491</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,7 +5859,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5920,7 +5878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F08821-C6D4-4EB2-993B-B7DB4127F077}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAB6F18-2EB3-4C10-BDF1-B21E5AE05FFB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5937,7 +5895,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6044,13 +6002,13 @@
         <v>9590</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -6059,13 +6017,13 @@
         <v>5299</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>46</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -6074,13 +6032,13 @@
         <v>14888</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>183</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6053,13 @@
         <v>5501</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>258</v>
+        <v>349</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>57</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6110,13 +6068,13 @@
         <v>4298</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>56</v>
+        <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>295</v>
+        <v>46</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -6125,13 +6083,13 @@
         <v>9799</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>59</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6104,13 @@
         <v>14607</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>363</v>
+        <v>99</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -6161,13 +6119,13 @@
         <v>11208</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>295</v>
+        <v>353</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>221</v>
+        <v>354</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>355</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -6176,19 +6134,19 @@
         <v>25814</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>295</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>7</v>
@@ -6197,13 +6155,13 @@
         <v>7410</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -6212,13 +6170,13 @@
         <v>2330</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -6227,19 +6185,19 @@
         <v>9740</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>59</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>366</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>280</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -6248,13 +6206,13 @@
         <v>6552</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>104</v>
+        <v>357</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>97</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -6263,13 +6221,13 @@
         <v>18435</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>367</v>
+        <v>98</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>368</v>
+        <v>163</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -6278,13 +6236,13 @@
         <v>24987</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,13 +6257,13 @@
         <v>3762</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>158</v>
+        <v>362</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -6314,13 +6272,13 @@
         <v>15760</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>357</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>362</v>
+        <v>295</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -6329,13 +6287,13 @@
         <v>19523</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>238</v>
+        <v>364</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,13 +6308,13 @@
         <v>2962</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>335</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -6365,13 +6323,13 @@
         <v>5863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>39</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -6380,13 +6338,13 @@
         <v>8825</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,13 +6359,13 @@
         <v>491251</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>1314</v>
@@ -6416,13 +6374,13 @@
         <v>768813</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>142</v>
+        <v>370</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M11" s="7">
         <v>1942</v>
@@ -6431,13 +6389,13 @@
         <v>1260064</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6505,13 +6463,13 @@
         <v>28619</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -6520,13 +6478,13 @@
         <v>34851</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>382</v>
+        <v>168</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -6535,13 +6493,13 @@
         <v>63470</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>383</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,13 +6514,13 @@
         <v>40136</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -6574,10 +6532,10 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>262</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -6586,13 +6544,13 @@
         <v>58996</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,13 +6565,13 @@
         <v>160507</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="H15" s="7">
         <v>120</v>
@@ -6622,13 +6580,13 @@
         <v>80374</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="M15" s="7">
         <v>267</v>
@@ -6637,19 +6595,19 @@
         <v>240880</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>394</v>
+        <v>159</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="7">
         <v>63</v>
@@ -6658,13 +6616,13 @@
         <v>83367</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>261</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -6673,13 +6631,13 @@
         <v>46783</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>351</v>
       </c>
       <c r="M16" s="7">
         <v>130</v>
@@ -6688,19 +6646,19 @@
         <v>130150</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>172</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="7">
         <v>110</v>
@@ -6709,13 +6667,13 @@
         <v>140537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
@@ -6724,13 +6682,13 @@
         <v>123097</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>268</v>
@@ -6739,13 +6697,13 @@
         <v>263634</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6718,13 @@
         <v>86584</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="H18" s="7">
         <v>144</v>
@@ -6775,13 +6733,13 @@
         <v>107526</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="M18" s="7">
         <v>212</v>
@@ -6790,13 +6748,13 @@
         <v>194110</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,13 +6769,13 @@
         <v>23401</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -6826,13 +6784,13 @@
         <v>20166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>243</v>
+        <v>403</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -6841,13 +6799,13 @@
         <v>43568</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>158</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>350</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6862,13 +6820,13 @@
         <v>1594057</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
         <v>2334</v>
@@ -6877,13 +6835,13 @@
         <v>1816033</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="M20" s="7">
         <v>3862</v>
@@ -6892,13 +6850,13 @@
         <v>3410090</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,7 +6912,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6966,13 +6924,13 @@
         <v>17103</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>425</v>
+        <v>240</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -6981,13 +6939,13 @@
         <v>16474</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -6996,13 +6954,13 @@
         <v>33577</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>429</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,13 +6975,13 @@
         <v>7346</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -7035,10 +6993,10 @@
         <v>83</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -7047,13 +7005,13 @@
         <v>15617</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,13 +7026,13 @@
         <v>46536</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="H24" s="7">
         <v>38</v>
@@ -7083,13 +7041,13 @@
         <v>25748</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>347</v>
+        <v>419</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="M24" s="7">
         <v>79</v>
@@ -7098,19 +7056,19 @@
         <v>72285</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>18</v>
@@ -7119,13 +7077,13 @@
         <v>19059</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>63</v>
+        <v>425</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -7134,13 +7092,13 @@
         <v>26083</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -7149,19 +7107,19 @@
         <v>45141</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>443</v>
+        <v>359</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>328</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>47</v>
@@ -7170,13 +7128,13 @@
         <v>54433</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="H26" s="7">
         <v>97</v>
@@ -7185,13 +7143,13 @@
         <v>73278</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="M26" s="7">
         <v>144</v>
@@ -7200,13 +7158,13 @@
         <v>127711</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,13 +7179,13 @@
         <v>23461</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>304</v>
+        <v>142</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>113</v>
+        <v>291</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="H27" s="7">
         <v>88</v>
@@ -7236,13 +7194,13 @@
         <v>62716</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="M27" s="7">
         <v>111</v>
@@ -7251,13 +7209,13 @@
         <v>86177</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,13 +7230,13 @@
         <v>11856</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -7287,13 +7245,13 @@
         <v>14014</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>276</v>
+        <v>447</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -7302,13 +7260,13 @@
         <v>25870</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>293</v>
+        <v>61</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>438</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7323,13 +7281,13 @@
         <v>493246</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="H29" s="7">
         <v>701</v>
@@ -7338,13 +7296,13 @@
         <v>487301</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="M29" s="7">
         <v>1218</v>
@@ -7353,13 +7311,13 @@
         <v>980548</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,13 +7385,13 @@
         <v>55311</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>183</v>
+        <v>457</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="H31" s="7">
         <v>73</v>
@@ -7442,13 +7400,13 @@
         <v>56624</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>472</v>
+        <v>83</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="M31" s="7">
         <v>130</v>
@@ -7457,13 +7415,13 @@
         <v>111935</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>473</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7478,13 +7436,13 @@
         <v>52982</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>474</v>
+        <v>176</v>
       </c>
       <c r="H32" s="7">
         <v>41</v>
@@ -7493,13 +7451,13 @@
         <v>31430</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>475</v>
+        <v>354</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="M32" s="7">
         <v>83</v>
@@ -7511,10 +7469,10 @@
         <v>61</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>334</v>
+        <v>257</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7529,13 +7487,13 @@
         <v>221649</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="H33" s="7">
         <v>180</v>
@@ -7544,13 +7502,13 @@
         <v>117330</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>125</v>
+        <v>287</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>275</v>
+        <v>461</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>479</v>
+        <v>427</v>
       </c>
       <c r="M33" s="7">
         <v>388</v>
@@ -7559,19 +7517,19 @@
         <v>338979</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>480</v>
+        <v>159</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C34" s="7">
         <v>88</v>
@@ -7580,13 +7538,13 @@
         <v>109835</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>483</v>
+        <v>202</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="H34" s="7">
         <v>103</v>
@@ -7595,13 +7553,13 @@
         <v>75196</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>372</v>
+        <v>292</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>398</v>
+        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>191</v>
@@ -7610,19 +7568,19 @@
         <v>185031</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>174</v>
+        <v>361</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>484</v>
+        <v>168</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>162</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="7">
         <v>165</v>
@@ -7631,13 +7589,13 @@
         <v>201522</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>459</v>
+        <v>308</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="H35" s="7">
         <v>287</v>
@@ -7646,13 +7604,13 @@
         <v>214811</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="M35" s="7">
         <v>452</v>
@@ -7661,13 +7619,13 @@
         <v>416332</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>491</v>
+        <v>389</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>175</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7682,13 +7640,13 @@
         <v>113807</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>302</v>
+        <v>474</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>337</v>
+        <v>475</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="H36" s="7">
         <v>260</v>
@@ -7697,13 +7655,13 @@
         <v>186003</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="M36" s="7">
         <v>356</v>
@@ -7712,13 +7670,13 @@
         <v>299809</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,13 +7691,13 @@
         <v>38220</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>84</v>
+        <v>483</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>363</v>
+        <v>11</v>
       </c>
       <c r="H37" s="7">
         <v>52</v>
@@ -7748,13 +7706,13 @@
         <v>40043</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>368</v>
+        <v>484</v>
       </c>
       <c r="M37" s="7">
         <v>84</v>
@@ -7763,13 +7721,13 @@
         <v>78263</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,43 +7742,43 @@
         <v>2578554</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="H38" s="7">
         <v>4349</v>
       </c>
       <c r="I38" s="7">
-        <v>3072147</v>
+        <v>3072148</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="M38" s="7">
         <v>7022</v>
       </c>
       <c r="N38" s="7">
-        <v>5650701</v>
+        <v>5650702</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>504</v>
+        <v>408</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,7 +7805,7 @@
         <v>5345</v>
       </c>
       <c r="I39" s="7">
-        <v>3793583</v>
+        <v>3793584</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>81</v>
@@ -7862,7 +7820,7 @@
         <v>8706</v>
       </c>
       <c r="N39" s="7">
-        <v>7165463</v>
+        <v>7165464</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>81</v>
@@ -7876,7 +7834,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBC50FF1-3ACF-444E-81BE-D166FEAB47A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4498C89E-2331-4A6D-8234-B0902F37F829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C09D7C08-62B9-407A-B2B1-4210AA5CFFF2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8EED2FB4-7274-4F8C-8512-1E34B153FFF2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="498">
   <si>
     <t>Población según el número de días a la semana que realiza gimnasia suave juegos que requieren poco esfuerzo y similares en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -1081,442 +1081,457 @@
     <t>Población según el número de días a la semana que realiza gimnasia suave juegos que requieren poco esfuerzo y similares en 2023 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
-    <t>3,1%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>4,68%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
+    <t>5,29%</t>
+  </si>
+  <si>
     <t>3,04%</t>
   </si>
   <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
   </si>
 </sst>
 </file>
@@ -1928,7 +1943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46EC55C-A4E0-441E-8B2F-3FBFDCD87EE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83797065-2172-489B-B8D2-A55662FE0202}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2421,7 +2436,7 @@
         <v>1200</v>
       </c>
       <c r="I11" s="7">
-        <v>1288759</v>
+        <v>1288760</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>75</v>
@@ -2472,7 +2487,7 @@
         <v>1247</v>
       </c>
       <c r="I12" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>81</v>
@@ -3358,7 +3373,7 @@
         <v>754</v>
       </c>
       <c r="N29" s="7">
-        <v>833756</v>
+        <v>833757</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>183</v>
@@ -3409,7 +3424,7 @@
         <v>850</v>
       </c>
       <c r="N30" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>81</v>
@@ -3804,7 +3819,7 @@
         <v>3077</v>
       </c>
       <c r="I38" s="7">
-        <v>3319537</v>
+        <v>3319538</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>220</v>
@@ -3855,7 +3870,7 @@
         <v>3293</v>
       </c>
       <c r="I39" s="7">
-        <v>3552336</v>
+        <v>3552337</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>81</v>
@@ -3903,7 +3918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C04B74B-505B-4EDD-AD22-1E03C2D19F95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3B084F-AED8-406A-8B75-FC35FC51F6C5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5384,7 +5399,7 @@
         <v>1027</v>
       </c>
       <c r="N30" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>81</v>
@@ -5878,7 +5893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAB6F18-2EB3-4C10-BDF1-B21E5AE05FFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A4CEE9-BCD6-40A4-AF7D-21E9F5972A9E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5999,46 +6014,46 @@
         <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>9590</v>
+        <v>9151</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>347</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>5299</v>
+        <v>4886</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>14888</v>
+        <v>14038</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>112</v>
+        <v>348</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>348</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,46 +6065,46 @@
         <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>5501</v>
+        <v>5252</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>4298</v>
+        <v>4034</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>262</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>9799</v>
+        <v>9287</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>59</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,28 +6116,28 @@
         <v>20</v>
       </c>
       <c r="D6" s="7">
-        <v>14607</v>
+        <v>14747</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>351</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>99</v>
+        <v>352</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>11208</v>
+        <v>10681</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>354</v>
+        <v>257</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>355</v>
@@ -6131,16 +6146,16 @@
         <v>42</v>
       </c>
       <c r="N6" s="7">
-        <v>25814</v>
+        <v>25429</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>356</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,22 +6167,22 @@
         <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>7410</v>
+        <v>6123</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>333</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>356</v>
+        <v>274</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>2330</v>
+        <v>2124</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>92</v>
@@ -6182,16 +6197,16 @@
         <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>9740</v>
+        <v>8248</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>105</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6203,28 +6218,28 @@
         <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>6552</v>
+        <v>6585</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>90</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
       </c>
       <c r="I8" s="7">
-        <v>18435</v>
+        <v>17991</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>98</v>
+        <v>358</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>359</v>
@@ -6233,16 +6248,16 @@
         <v>40</v>
       </c>
       <c r="N8" s="7">
-        <v>24987</v>
+        <v>24576</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>114</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6254,46 +6269,46 @@
         <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>3762</v>
+        <v>3471</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>362</v>
+        <v>89</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>363</v>
+        <v>106</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>205</v>
+        <v>354</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
       </c>
       <c r="I9" s="7">
-        <v>15760</v>
+        <v>14453</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>357</v>
+        <v>199</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
       </c>
       <c r="N9" s="7">
-        <v>19523</v>
+        <v>17924</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>365</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>325</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,7 +6320,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>2962</v>
+        <v>2808</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -6314,19 +6329,19 @@
         <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>5863</v>
+        <v>5335</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>85</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>290</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>58</v>
@@ -6335,13 +6350,13 @@
         <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>8825</v>
+        <v>8143</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>31</v>
@@ -6356,46 +6371,46 @@
         <v>628</v>
       </c>
       <c r="D11" s="7">
-        <v>491251</v>
+        <v>466799</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>1314</v>
       </c>
       <c r="I11" s="7">
-        <v>768813</v>
+        <v>692584</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M11" s="7">
         <v>1942</v>
       </c>
       <c r="N11" s="7">
-        <v>1260064</v>
+        <v>1159384</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6407,7 +6422,7 @@
         <v>691</v>
       </c>
       <c r="D12" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>81</v>
@@ -6422,7 +6437,7 @@
         <v>1424</v>
       </c>
       <c r="I12" s="7">
-        <v>832006</v>
+        <v>752089</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>81</v>
@@ -6437,7 +6452,7 @@
         <v>2115</v>
       </c>
       <c r="N12" s="7">
-        <v>1373640</v>
+        <v>1267028</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>81</v>
@@ -6460,46 +6475,46 @@
         <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>28619</v>
+        <v>26326</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>104</v>
+        <v>373</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
       </c>
       <c r="I13" s="7">
-        <v>34851</v>
+        <v>31911</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>97</v>
+        <v>374</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
       </c>
       <c r="N13" s="7">
-        <v>63470</v>
+        <v>58236</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>126</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6511,46 +6526,46 @@
         <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>40136</v>
+        <v>39976</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>122</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
       </c>
       <c r="I14" s="7">
-        <v>18861</v>
+        <v>16561</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
       </c>
       <c r="N14" s="7">
-        <v>58996</v>
+        <v>56537</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>376</v>
+        <v>52</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6562,7 +6577,7 @@
         <v>147</v>
       </c>
       <c r="D15" s="7">
-        <v>160507</v>
+        <v>160433</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>377</v>
@@ -6577,31 +6592,31 @@
         <v>120</v>
       </c>
       <c r="I15" s="7">
-        <v>80374</v>
+        <v>75494</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>380</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M15" s="7">
         <v>267</v>
       </c>
       <c r="N15" s="7">
-        <v>240880</v>
+        <v>235927</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>159</v>
+        <v>384</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,46 +6628,46 @@
         <v>63</v>
       </c>
       <c r="D16" s="7">
-        <v>83367</v>
+        <v>80190</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
       </c>
       <c r="I16" s="7">
-        <v>46783</v>
+        <v>42043</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>252</v>
+        <v>151</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>351</v>
+        <v>115</v>
       </c>
       <c r="M16" s="7">
         <v>130</v>
       </c>
       <c r="N16" s="7">
-        <v>130150</v>
+        <v>122233</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>334</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,46 +6679,46 @@
         <v>110</v>
       </c>
       <c r="D17" s="7">
-        <v>140537</v>
+        <v>138615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
       </c>
       <c r="I17" s="7">
-        <v>123097</v>
+        <v>113084</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>395</v>
       </c>
       <c r="M17" s="7">
         <v>268</v>
       </c>
       <c r="N17" s="7">
-        <v>263634</v>
+        <v>251699</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,46 +6730,46 @@
         <v>68</v>
       </c>
       <c r="D18" s="7">
-        <v>86584</v>
+        <v>85077</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>396</v>
+        <v>265</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="H18" s="7">
         <v>144</v>
       </c>
       <c r="I18" s="7">
-        <v>107526</v>
+        <v>98195</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="M18" s="7">
         <v>212</v>
       </c>
       <c r="N18" s="7">
-        <v>194110</v>
+        <v>183272</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,46 +6781,46 @@
         <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>23401</v>
+        <v>22806</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
       </c>
       <c r="I19" s="7">
-        <v>20166</v>
+        <v>18525</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>257</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>403</v>
+        <v>19</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
       </c>
       <c r="N19" s="7">
-        <v>43568</v>
+        <v>41331</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>174</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6817,46 +6832,46 @@
         <v>1528</v>
       </c>
       <c r="D20" s="7">
-        <v>1594057</v>
+        <v>1732130</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H20" s="7">
         <v>2334</v>
       </c>
       <c r="I20" s="7">
-        <v>1816033</v>
+        <v>1840303</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>3862</v>
       </c>
       <c r="N20" s="7">
-        <v>3410090</v>
+        <v>3572434</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,7 +6883,7 @@
         <v>1989</v>
       </c>
       <c r="D21" s="7">
-        <v>2157207</v>
+        <v>2285552</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>81</v>
@@ -6883,7 +6898,7 @@
         <v>2917</v>
       </c>
       <c r="I21" s="7">
-        <v>2247691</v>
+        <v>2236117</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>81</v>
@@ -6898,7 +6913,7 @@
         <v>4906</v>
       </c>
       <c r="N21" s="7">
-        <v>4404898</v>
+        <v>4521670</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>81</v>
@@ -6921,46 +6936,46 @@
         <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>17103</v>
+        <v>16155</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>97</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
       </c>
       <c r="I22" s="7">
-        <v>16474</v>
+        <v>15112</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
       </c>
       <c r="N22" s="7">
-        <v>33577</v>
+        <v>31267</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>173</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6972,7 +6987,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="7">
-        <v>7346</v>
+        <v>7077</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>217</v>
@@ -6981,37 +6996,37 @@
         <v>188</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>421</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
       </c>
       <c r="I23" s="7">
-        <v>8271</v>
+        <v>7200</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>96</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>322</v>
+        <v>114</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
       </c>
       <c r="N23" s="7">
-        <v>15617</v>
+        <v>14276</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7023,46 +7038,46 @@
         <v>41</v>
       </c>
       <c r="D24" s="7">
-        <v>46536</v>
+        <v>45659</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="H24" s="7">
         <v>38</v>
       </c>
       <c r="I24" s="7">
-        <v>25748</v>
+        <v>25418</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>419</v>
+        <v>212</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M24" s="7">
         <v>79</v>
       </c>
       <c r="N24" s="7">
-        <v>72285</v>
+        <v>71077</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7074,46 +7089,46 @@
         <v>18</v>
       </c>
       <c r="D25" s="7">
-        <v>19059</v>
+        <v>18468</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>424</v>
+        <v>351</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>425</v>
+        <v>271</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
       </c>
       <c r="I25" s="7">
-        <v>26083</v>
+        <v>24192</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
       </c>
       <c r="N25" s="7">
-        <v>45141</v>
+        <v>42660</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>359</v>
+        <v>434</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>328</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,46 +7140,46 @@
         <v>47</v>
       </c>
       <c r="D26" s="7">
-        <v>54433</v>
+        <v>55135</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>97</v>
       </c>
       <c r="I26" s="7">
-        <v>73278</v>
+        <v>69265</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M26" s="7">
         <v>144</v>
       </c>
       <c r="N26" s="7">
-        <v>127711</v>
+        <v>124400</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,46 +7191,46 @@
         <v>23</v>
       </c>
       <c r="D27" s="7">
-        <v>23461</v>
+        <v>22867</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="H27" s="7">
         <v>88</v>
       </c>
       <c r="I27" s="7">
-        <v>62716</v>
+        <v>58872</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="M27" s="7">
         <v>111</v>
       </c>
       <c r="N27" s="7">
-        <v>86177</v>
+        <v>81739</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>444</v>
+        <v>393</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,46 +7242,46 @@
         <v>10</v>
       </c>
       <c r="D28" s="7">
-        <v>11856</v>
+        <v>10890</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>425</v>
+        <v>373</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>446</v>
+        <v>331</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
       </c>
       <c r="I28" s="7">
-        <v>14014</v>
+        <v>12815</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>336</v>
+        <v>114</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>447</v>
+        <v>124</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
       </c>
       <c r="N28" s="7">
-        <v>25870</v>
+        <v>23705</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>125</v>
+        <v>451</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>207</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,46 +7293,46 @@
         <v>517</v>
       </c>
       <c r="D29" s="7">
-        <v>493246</v>
+        <v>470371</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H29" s="7">
         <v>701</v>
       </c>
       <c r="I29" s="7">
-        <v>487301</v>
+        <v>447590</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M29" s="7">
         <v>1218</v>
       </c>
       <c r="N29" s="7">
-        <v>980548</v>
+        <v>917962</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7329,7 +7344,7 @@
         <v>681</v>
       </c>
       <c r="D30" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>81</v>
@@ -7344,7 +7359,7 @@
         <v>1004</v>
       </c>
       <c r="I30" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>81</v>
@@ -7359,7 +7374,7 @@
         <v>1685</v>
       </c>
       <c r="N30" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>81</v>
@@ -7382,46 +7397,46 @@
         <v>57</v>
       </c>
       <c r="D31" s="7">
-        <v>55311</v>
+        <v>51632</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="H31" s="7">
         <v>73</v>
       </c>
       <c r="I31" s="7">
-        <v>56624</v>
+        <v>51910</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>205</v>
+        <v>354</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>336</v>
+        <v>151</v>
       </c>
       <c r="M31" s="7">
         <v>130</v>
       </c>
       <c r="N31" s="7">
-        <v>111935</v>
+        <v>103541</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,46 +7448,46 @@
         <v>42</v>
       </c>
       <c r="D32" s="7">
-        <v>52982</v>
+        <v>52305</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="H32" s="7">
         <v>41</v>
       </c>
       <c r="I32" s="7">
-        <v>31430</v>
+        <v>27795</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>354</v>
+        <v>50</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="M32" s="7">
         <v>83</v>
       </c>
       <c r="N32" s="7">
-        <v>84412</v>
+        <v>80100</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>257</v>
+        <v>17</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7484,46 +7499,46 @@
         <v>208</v>
       </c>
       <c r="D33" s="7">
-        <v>221649</v>
+        <v>220839</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H33" s="7">
         <v>180</v>
       </c>
       <c r="I33" s="7">
-        <v>117330</v>
+        <v>111593</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>287</v>
+        <v>464</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>427</v>
+        <v>466</v>
       </c>
       <c r="M33" s="7">
         <v>388</v>
       </c>
       <c r="N33" s="7">
-        <v>338979</v>
+        <v>332433</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>159</v>
+        <v>467</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,46 +7550,46 @@
         <v>88</v>
       </c>
       <c r="D34" s="7">
-        <v>109835</v>
+        <v>104782</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>202</v>
+        <v>471</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>465</v>
+        <v>169</v>
       </c>
       <c r="H34" s="7">
         <v>103</v>
       </c>
       <c r="I34" s="7">
-        <v>75196</v>
+        <v>68359</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>292</v>
+        <v>125</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>240</v>
+        <v>432</v>
       </c>
       <c r="M34" s="7">
         <v>191</v>
       </c>
       <c r="N34" s="7">
-        <v>185031</v>
+        <v>173141</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>466</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7586,46 +7601,46 @@
         <v>165</v>
       </c>
       <c r="D35" s="7">
-        <v>201522</v>
+        <v>200335</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>308</v>
+        <v>397</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>468</v>
+        <v>377</v>
       </c>
       <c r="H35" s="7">
         <v>287</v>
       </c>
       <c r="I35" s="7">
-        <v>214811</v>
+        <v>200340</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="M35" s="7">
         <v>452</v>
       </c>
       <c r="N35" s="7">
-        <v>416332</v>
+        <v>400675</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>389</v>
+        <v>477</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,46 +7652,46 @@
         <v>96</v>
       </c>
       <c r="D36" s="7">
-        <v>113807</v>
+        <v>111416</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>475</v>
+        <v>113</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H36" s="7">
         <v>260</v>
       </c>
       <c r="I36" s="7">
-        <v>186003</v>
+        <v>171519</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="M36" s="7">
         <v>356</v>
       </c>
       <c r="N36" s="7">
-        <v>299809</v>
+        <v>282935</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>481</v>
+        <v>270</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7688,46 +7703,46 @@
         <v>32</v>
       </c>
       <c r="D37" s="7">
-        <v>38220</v>
+        <v>36504</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>253</v>
+        <v>146</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="H37" s="7">
         <v>52</v>
       </c>
       <c r="I37" s="7">
-        <v>40043</v>
+        <v>36675</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>146</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>484</v>
+        <v>356</v>
       </c>
       <c r="M37" s="7">
         <v>84</v>
       </c>
       <c r="N37" s="7">
-        <v>78263</v>
+        <v>73179</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>217</v>
+        <v>487</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>128</v>
+        <v>488</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7739,46 +7754,46 @@
         <v>2673</v>
       </c>
       <c r="D38" s="7">
-        <v>2578554</v>
+        <v>2669301</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H38" s="7">
         <v>4349</v>
       </c>
       <c r="I38" s="7">
-        <v>3072148</v>
+        <v>2980479</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="M38" s="7">
         <v>7022</v>
       </c>
       <c r="N38" s="7">
-        <v>5650702</v>
+        <v>5649780</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>408</v>
+        <v>495</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7790,7 +7805,7 @@
         <v>3361</v>
       </c>
       <c r="D39" s="7">
-        <v>3371880</v>
+        <v>3447114</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>81</v>
@@ -7805,7 +7820,7 @@
         <v>5345</v>
       </c>
       <c r="I39" s="7">
-        <v>3793584</v>
+        <v>3648670</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>81</v>
@@ -7820,7 +7835,7 @@
         <v>8706</v>
       </c>
       <c r="N39" s="7">
-        <v>7165464</v>
+        <v>7095784</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>81</v>
